--- a/biology/Zoologie/Albatros_à_nez_jaune_de_l'océan_Indien/Albatros_à_nez_jaune_de_l'océan_Indien.xlsx
+++ b/biology/Zoologie/Albatros_à_nez_jaune_de_l'océan_Indien/Albatros_à_nez_jaune_de_l'océan_Indien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albatros_%C3%A0_nez_jaune_de_l%27oc%C3%A9an_Indien</t>
+          <t>Albatros_à_nez_jaune_de_l'océan_Indien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassarche carteri
 L'Albatros à nez jaune de l'océan Indien  (Thalassarche carteri), également appelé Albatros de Carter ou Albatros de l'océan Indien, est une espèce d'oiseaux de mer de la famille des Diomedeidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albatros_%C3%A0_nez_jaune_de_l%27oc%C3%A9an_Indien</t>
+          <t>Albatros_à_nez_jaune_de_l'océan_Indien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet albatros pèse de 1,9 à 2,8 kg pour une envergure de 180 à 200 cm.
 La tête est blanche avec une zone grise limitée à la face. La mandibule supérieure présente une ligne jaune très étroite à la base du bec.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albatros_%C3%A0_nez_jaune_de_l%27oc%C3%A9an_Indien</t>
+          <t>Albatros_à_nez_jaune_de_l'océan_Indien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassarche carteri niche sur Saint-Paul et Amsterdam, Marion et Prince-Edouard, Crozet et îles Kerguelen.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Albatros_%C3%A0_nez_jaune_de_l%27oc%C3%A9an_Indien</t>
+          <t>Albatros_à_nez_jaune_de_l'océan_Indien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Todd F.S. &amp; Genevois F. (2006) Oiseaux &amp; Mammifères antarctiques et des îles de l'océan austral. Kameleo, Paris, 144 p.</t>
         </is>
